--- a/Examples/Output/PSWriteExcel.FormulaTest.xlsx
+++ b/Examples/Output/PSWriteExcel.FormulaTest.xlsx
@@ -56,7 +56,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="E1:E8"/>
+  <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -77,6 +77,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" s="0">
+        <v>10</v>
+      </c>
+    </row>
     <row r="7">
       <c r="E7" s="0">
         <f>SUM(E1:E5)</f>
@@ -88,6 +93,10 @@
         <f>SUM(E1:E5)</f>
         <v>15</v>
       </c>
+      <c r="F8" s="0">
+        <f>((1+B4)^(1/12))-1</f>
+        <v>0.2211885503119937</v>
+      </c>
     </row>
   </sheetData>
   <headerFooter/>

--- a/Examples/Output/PSWriteExcel.FormulaTest.xlsx
+++ b/Examples/Output/PSWriteExcel.FormulaTest.xlsx
@@ -56,7 +56,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:F8"/>
+  <dimension ref="E1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -77,11 +77,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="0">
-        <v>10</v>
-      </c>
-    </row>
     <row r="7">
       <c r="E7" s="0">
         <f>SUM(E1:E5)</f>
@@ -93,10 +88,6 @@
         <f>SUM(E1:E5)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="0">
-        <f>((1+B4)^(1/12))-1</f>
-        <v>0.2211885503119937</v>
-      </c>
     </row>
   </sheetData>
   <headerFooter/>
